--- a/Assets/Data/Table/Convert/RuleMove_Character.xlsx
+++ b/Assets/Data/Table/Convert/RuleMove_Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A76A33-77BC-4815-B3B8-060C019C1770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C003485-161D-4E61-95E7-8428735AA083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,18 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To_Value_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To_Value_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MovePosition_Curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MoveCriterial_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MainTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상을 향해 날라감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EndOnCollision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCollider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Custom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,51 +116,161 @@
     <t>Test_05</t>
   </si>
   <si>
-    <t>Speed_Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed_Curve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Easing.
-EaseType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UseReflect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Target.
-TargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linear</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>InOutSine</t>
+    <t>MoveStepGroup_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextStep_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoopTime_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loop_Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveCoordinate_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseParabola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isKeepVelocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveCriteria_Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedInit_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedAdd_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedSub_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedMax_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trajectory_Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easing_Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationRandom_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationRandom_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationSpeed_Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animation_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCollision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEndOnCollision</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Tb.Curve
-Character</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tb.Curve
-Character</t>
+Curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutCirc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Tb.Animation
+Animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Move.
+LoopTimeType</t>
+  </si>
+  <si>
+    <t>Em.Unit.
+CoordinateType</t>
+  </si>
+  <si>
+    <t>Em.Move.
+MoveCriteriaType</t>
+  </si>
+  <si>
+    <t>Tb.Target
+TargetFilter</t>
+  </si>
+  <si>
+    <t>Tb.Target
+TargetFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTargetFilter_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationTargetFilter_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationStartDegree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTo_Value_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTo_Value_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easing_Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +339,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,6 +346,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,21 +408,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,38 +419,68 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,337 +769,684 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.296875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="48.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="15.296875" style="2"/>
+    <col min="2" max="2" width="29.69921875" style="2" customWidth="1"/>
+    <col min="3" max="31" width="15.296875" style="3"/>
+    <col min="32" max="16384" width="15.296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="87" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:31" ht="93.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>21</v>
+      <c r="J6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="K6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7">
-        <v>-3</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="7">
-        <v>-3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="3">
         <v>-2</v>
       </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9" t="b">
-        <v>1</v>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
